--- a/data/Longaví.xlsx
+++ b/data/Longaví.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J178"/>
+  <dimension ref="A1:J179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Extracción y Procesamiento de Áridos, Río Achibueno, Sector Los Maitenes</t>
+          <t>Conservación y Mantención de ribera río Achibueno</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Fernando Eugenio Vega Godoy</t>
+          <t>CONSTRUCTORA ARIAL LIMITADA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2500</v>
+        <v>101</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>27/08/2021</t>
+          <t>18/02/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152951438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155182346&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>29/07/2021</t>
+          <t>27/08/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152568643&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152951438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Constructora Revial Limitada</t>
+          <t>Extracción y Procesamiento de Áridos, Río Achibueno, Sector Los Maitenes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Constructora Revial Limitada</t>
+          <t>Fernando Eugenio Vega Godoy</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>400</v>
+        <v>2500</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>21/07/2021</t>
+          <t>29/07/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152535485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152568643&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Extracción y Procesamiento de Áridos, Río Achibueno, Sector Los Maitenes</t>
+          <t>Constructora Revial Limitada</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Fernando Eugenio Vega Godoy</t>
+          <t>Constructora Revial Limitada</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2500</v>
+        <v>400</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>05/07/2021</t>
+          <t>21/07/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152243881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152535485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parque Solar Fotovoltaico Ballota</t>
+          <t>Extracción y Procesamiento de Áridos, Río Achibueno, Sector Los Maitenes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MANZANARES ENERGIA SPA</t>
+          <t>Fernando Eugenio Vega Godoy</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>19/05/2021</t>
+          <t>05/07/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151756866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152243881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Villa Longaví PMG</t>
+          <t>Parque Solar Fotovoltaico Ballota</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Parque Solar Villa Longaví SpA</t>
+          <t>MANZANARES ENERGIA SPA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>10700</v>
+        <v>10000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>22/04/2020</t>
+          <t>19/05/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146349634&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151756866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>Parque Fotovoltaico Villa Longaví PMG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,20 +722,20 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>Parque Solar Villa Longaví SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4000</v>
+        <v>10700</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>27/01/2020</t>
+          <t>22/04/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146349634&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>27/01/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Los Conquistadores</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,20 +818,20 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA MALPO SPA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>9604</v>
+        <v>25000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>28/11/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145045966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>Los Conquistadores</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,30 +866,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>CONSTRUCTORA MALPO SPA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>40</v>
+        <v>9604</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>28/11/2019</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145045966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Transportes Pacífico Limitada</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>9903</v>
+        <v>40</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Transportes Pacífico Limitada</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>42</v>
+        <v>9903</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>20000</v>
+        <v>42</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>37</v>
+        <v>20000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>12/06/2017</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>12/06/2017</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>10000</v>
+        <v>37</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ampliación Transporte rodoviario de cloro</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>27/01/2015</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130165273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Ampliación Transporte rodoviario de cloro</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>27/01/2015</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130165273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ampliación Transporte rodoviario de cloro</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>13/01/2015</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130123610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Ampliación Transporte rodoviario de cloro</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>13/01/2015</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130123610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,11 +1399,11 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento Aguas Servidas de Longaví</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,30 +1634,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Nuevosur S. A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>22/10/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129889310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Mejoramiento Planta de Tratamiento Aguas Servidas de Longaví</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,20 +1682,20 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Nuevosur S. A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>17000</v>
+        <v>1000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>22/10/2014</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129889310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1743,17 +1743,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Tranques Macal, el Cóndor y otros.</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,30 +1778,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Agricola El Porvenir S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>650</v>
+        <v>17000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>23/07/2014</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129619123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>Tranques Macal, el Cóndor y otros.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,30 +1826,30 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Agricola El Porvenir S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>5000</v>
+        <v>650</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>23/07/2014</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129619123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1200</v>
+        <v>5000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,11 +1927,11 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,12 +2008,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PROYECTO NUEVA LÍNEA 2X500 KV CHARRÚA-ANCOA: TENDIDO DEL PRIMER CONDUCTOR</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Charrúa Transmisora de Energía S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>140400</v>
+        <v>5000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>08/10/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128641162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,12 +2056,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>PROYECTO NUEVA LÍNEA 2X500 KV CHARRÚA-ANCOA: TENDIDO DEL PRIMER CONDUCTOR</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Charrúa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>140400</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>08/10/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128641162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2127,17 +2127,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2367,7 +2367,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2475</v>
+        <v>250</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE ASERRÍO Y REMANUFACTURA, FORESTAL SANTA BLANCA, PLANTA LONGAVÍ</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,30 +2450,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Forestal Santa Blanca Limitada</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1500</v>
+        <v>2475</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>23/10/2012</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7402607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>AMPLIACIÓN PLANTA DE ASERRÍO Y REMANUFACTURA, FORESTAL SANTA BLANCA, PLANTA LONGAVÍ</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,30 +2498,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Forestal Santa Blanca Limitada</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>15000</v>
+        <v>1500</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>23/10/2012</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7402607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>706</v>
+        <v>15000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2607,17 +2607,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>706</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,15 +2887,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>17/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>17/10/2011</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>200</v>
+        <v>319</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1650</v>
+        <v>200</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>18/08/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3179,21 +3179,21 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>04/08/2011</t>
+          <t>18/08/2011</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>04/08/2011</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,25 +3271,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3327,17 +3327,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>09/09/2010</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,7 +3415,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Alberto Díaz Parraguez</t>
+          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -3423,17 +3423,17 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>25/08/2010</t>
+          <t>09/09/2010</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,25 +3463,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Alberto Díaz Parraguez</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>25/08/2010</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>13/05/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>4050</v>
+        <v>20</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>13/05/2010</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,25 +3655,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3759,7 +3759,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,15 +3943,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,11 +3991,11 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -4047,17 +4047,17 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,25 +4087,25 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,25 +4135,25 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,15 +4183,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,15 +4231,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,36 +4264,40 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Proyecto hidroeléctrico ACHIBUENO</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Centinela S.A</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>285000</v>
+        <v>22</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>24/03/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3641858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4308,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Proyecto Hidroeléctrico Achibueno</t>
+          <t>Proyecto hidroeléctrico ACHIBUENO</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -4319,7 +4323,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Centinela Limitada</t>
+          <t>Hidroeléctrica Centinela S.A</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -4327,7 +4331,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>18/03/2009</t>
+          <t>24/03/2009</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4337,7 +4341,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3633835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3641858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4352,40 +4356,36 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Proyecto Hidroeléctrico Achibueno</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Hidroeléctrica Centinela Limitada</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>285000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>10/02/2009</t>
+          <t>18/03/2009</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3633835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4400,7 +4400,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4415,7 +4415,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -4423,17 +4423,17 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>10/02/2009</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4471,17 +4471,17 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4496,7 +4496,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4511,7 +4511,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -4519,17 +4519,17 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4544,7 +4544,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4559,25 +4559,25 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>07/11/2008</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4592,7 +4592,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4607,25 +4607,25 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4640,7 +4640,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4655,25 +4655,25 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4688,7 +4688,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4703,11 +4703,11 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4716,12 +4716,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4736,7 +4736,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4751,25 +4751,25 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>10/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4784,7 +4784,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4799,25 +4799,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>10/10/2008</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4832,7 +4832,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4847,25 +4847,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4880,7 +4880,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4895,25 +4895,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4928,7 +4928,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4943,25 +4943,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1750</v>
+        <v>20</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4976,7 +4976,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4991,15 +4991,15 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5009,7 +5009,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5024,7 +5024,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5039,25 +5039,25 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1650</v>
+        <v>250</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5072,7 +5072,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5087,15 +5087,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5105,7 +5105,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5135,25 +5135,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5168,7 +5168,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,17 +5191,17 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5216,7 +5216,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5231,15 +5231,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5249,7 +5249,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5264,7 +5264,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5279,15 +5279,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5297,7 +5297,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5312,7 +5312,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5327,25 +5327,25 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>200</v>
+        <v>1650</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5360,7 +5360,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5375,25 +5375,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5408,10 +5408,14 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>LINEA ALTA TENSION 2x220 kV SAN FABIAN - ANCOA Y OBRAS ASOCIADAS</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr"/>
+          <t>transporte de residuos peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D106" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -5419,25 +5423,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Sistema de Trasmisión del Centro S.A</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>40000</v>
+        <v>20</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>10/04/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2837071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5452,40 +5456,36 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Ampliacion y Mejoramiento Servicio APR San Luis San Raul Las Motas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>LINEA ALTA TENSION 2x220 kV SAN FABIAN - ANCOA Y OBRAS ASOCIADAS</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Comité APR San Luis San Raul Las Motas</t>
+          <t>Sistema de Trasmisión del Centro S.A</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1789</v>
+        <v>40000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>31/03/2008</t>
+          <t>10/04/2008</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2810434&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2837071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5500,7 +5500,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
+          <t>Ampliacion y Mejoramiento Servicio APR San Luis San Raul Las Motas (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5510,30 +5510,30 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Comité APR San Luis San Raul Las Motas</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>1789</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>21/02/2008</t>
+          <t>31/03/2008</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2810434&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5548,7 +5548,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5563,25 +5563,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>21/02/2008</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5596,7 +5596,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5611,25 +5611,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5644,7 +5644,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Proyecto Porcinos AGRICURA Porcinos Agricura (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5654,20 +5654,20 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Agrícola Joaquín Edgardo Cura Osorio y Cía</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>817</v>
+        <v>0</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>16/01/2008</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5677,7 +5677,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2640102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5692,7 +5692,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LA REGIONES VI Y VIII (e-seia)</t>
+          <t>Proyecto Porcinos AGRICURA Porcinos Agricura (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5702,20 +5702,20 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Agrícola Joaquín Edgardo Cura Osorio y Cía</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>100</v>
+        <v>817</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>11/01/2008</t>
+          <t>16/01/2008</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5725,7 +5725,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2630709&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2640102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5740,7 +5740,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LA REGIONES VI Y VIII (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5755,15 +5755,15 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>26/12/2007</t>
+          <t>11/01/2008</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5773,7 +5773,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2630709&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5788,7 +5788,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5803,15 +5803,15 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>429</v>
+        <v>30</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>26/12/2007</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5821,7 +5821,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5836,7 +5836,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5851,25 +5851,25 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5884,7 +5884,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5899,25 +5899,25 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5932,7 +5932,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5947,25 +5947,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5980,7 +5980,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5995,25 +5995,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>850</v>
+        <v>10</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>24/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2339571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6028,7 +6028,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6043,25 +6043,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>24/08/2007</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2339571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6076,7 +6076,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>CEMENTERIO PARQUE LONGAVI (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6086,30 +6086,30 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>RICARDO ANTONIO ALBORNOZ VASQUEZ</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>16/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2319788&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6124,7 +6124,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMAPCTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>CEMENTERIO PARQUE LONGAVI (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6134,20 +6134,20 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>RICARDO ANTONIO ALBORNOZ VASQUEZ</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>850</v>
+        <v>380</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>03/08/2007</t>
+          <t>16/08/2007</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6157,7 +6157,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2295234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2319788&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6172,7 +6172,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>DECLARACION DE IMAPCTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6187,7 +6187,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Carlos Muñoz Hermosilla</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F122" t="n">
@@ -6195,7 +6195,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>06/07/2007</t>
+          <t>03/08/2007</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6205,7 +6205,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198879&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2295234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6220,7 +6220,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6235,15 +6235,15 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Carlos Muñoz Hermosilla</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>06/07/2007</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6253,7 +6253,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198879&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6268,7 +6268,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6283,25 +6283,25 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6316,7 +6316,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>DIA Plan Regulador Comunal de Longaví (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6326,30 +6326,30 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Longaví</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>24/04/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2095941&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6364,7 +6364,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>DIA Plan Regulador Comunal de Longaví (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6374,20 +6374,20 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Ilustre Municipalidad de Longaví</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>24/04/2007</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6397,7 +6397,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2095941&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6412,7 +6412,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6431,21 +6431,21 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6460,7 +6460,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6475,25 +6475,25 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6508,7 +6508,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6531,17 +6531,17 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6556,7 +6556,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6571,25 +6571,25 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6604,7 +6604,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6619,25 +6619,25 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6652,7 +6652,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6667,25 +6667,25 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6700,7 +6700,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6715,25 +6715,25 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6748,7 +6748,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6763,25 +6763,25 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6796,7 +6796,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6811,25 +6811,25 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6844,7 +6844,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6859,25 +6859,25 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6892,7 +6892,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6907,25 +6907,25 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6940,7 +6940,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6955,7 +6955,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F138" t="n">
@@ -6963,17 +6963,17 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6988,7 +6988,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>"TRANSPORTE FERROVIARIO DE ÁCIDO SULFÚRICO ENTRE REGIONES V Y VIII PARA EL COMPLEJO FORESTAL INDUSTRIAL CFI NUEVA ALDEA" (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7003,25 +7003,25 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>30/05/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1469666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7036,7 +7036,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ENGORDA DE GANADO BOVINO EN CONCENTRACION (e-seia)</t>
+          <t>"TRANSPORTE FERROVIARIO DE ÁCIDO SULFÚRICO ENTRE REGIONES V Y VIII PARA EL COMPLEJO FORESTAL INDUSTRIAL CFI NUEVA ALDEA" (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7046,30 +7046,30 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Nicanor Allende Vial</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>9308</v>
+        <v>142</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>05/05/2006</t>
+          <t>30/05/2006</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1414292&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1469666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7084,7 +7084,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>ENGORDA DE GANADO BOVINO EN CONCENTRACION (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7094,30 +7094,30 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Nicanor Allende Vial</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>500</v>
+        <v>9308</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>05/05/2006</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1414292&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7132,7 +7132,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7155,17 +7155,17 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7180,7 +7180,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7195,25 +7195,25 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7228,7 +7228,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7251,17 +7251,17 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7276,7 +7276,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7291,25 +7291,25 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7324,7 +7324,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7339,25 +7339,25 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7372,7 +7372,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7387,25 +7387,25 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7420,7 +7420,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7435,25 +7435,25 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>3517</v>
+        <v>72</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7468,7 +7468,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7483,15 +7483,15 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7501,7 +7501,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7516,7 +7516,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Diseño de Ingeniería, Mejoramiento y Ampliación Servicio de Agua Potable Rural Paine-La Conquista (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7526,20 +7526,20 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Eulalia de Lourdes Álvarez Sepúlveda</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>550</v>
+        <v>160</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>09/11/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7549,7 +7549,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1082720&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7564,7 +7564,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Diseño de Ingeniería, Mejoramiento y Ampliación Servicio de Agua Potable Rural Paine-La Conquista (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7574,20 +7574,20 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Eulalia de Lourdes Álvarez Sepúlveda</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>80</v>
+        <v>550</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>09/11/2005</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1082720&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7612,7 +7612,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7627,15 +7627,15 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7645,7 +7645,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7675,11 +7675,11 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7693,7 +7693,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7708,7 +7708,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7723,11 +7723,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7756,7 +7756,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7771,7 +7771,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
@@ -7779,7 +7779,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7789,7 +7789,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7804,7 +7804,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7819,15 +7819,15 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7837,7 +7837,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7867,7 +7867,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F157" t="n">
@@ -7875,17 +7875,17 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7900,7 +7900,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7915,15 +7915,15 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7933,7 +7933,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7948,7 +7948,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGION DEL MAULE. (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7958,30 +7958,30 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Bienes Nacionales, Región del Maule</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>17/01/2005</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561657&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -7996,7 +7996,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGION DEL MAULE. (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8006,20 +8006,20 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>SEREMI de Vivienda y Bienes Nacionales, Región del Maule</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>17/01/2005</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8029,7 +8029,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561657&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8044,7 +8044,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Proyecto Cementerio Parque Jardines de Longaví (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8054,20 +8054,20 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Valericio Sepúlveda Ramírez</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>16/01/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8077,7 +8077,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=249005&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8092,7 +8092,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Proyecto Cementerio Parque Jardines de Longaví (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8102,20 +8102,20 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Valericio Sepúlveda Ramírez</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>16/01/2004</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8125,7 +8125,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=249005&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8140,7 +8140,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>TRANSFORMACIÓN A 500 kV DE LA LÍNEA DE TRANSMISIÓN ELÉCTRICA 2X220 kV CHARRÚA ANCOA 1 Y 2 (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8155,15 +8155,15 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>6600</v>
+        <v>200</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>04/07/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8173,7 +8173,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8188,7 +8188,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Cementerio Parque Los Jardines de Longaví</t>
+          <t>TRANSFORMACIÓN A 500 kV DE LA LÍNEA DE TRANSMISIÓN ELÉCTRICA 2X220 kV CHARRÚA ANCOA 1 Y 2 (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8198,30 +8198,30 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Valericio Sepúlveda Ramírez</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>09/04/2003</t>
+          <t>04/07/2003</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6233&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8236,7 +8236,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>DISEÑO, SUMINISTRO, INSTALACION Y MONTAJE DE EQUIPOS DE AIREACION EN LAGUNAS DE ESTABILIZACION DE LA LOCALIDAD DE LONGAVI (e-seia)</t>
+          <t>Cementerio Parque Los Jardines de Longaví</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8251,25 +8251,25 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Nuevosur S. A.</t>
+          <t>Valericio Sepúlveda Ramírez</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>13/11/2002</t>
+          <t>09/04/2003</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=33142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6233&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8284,7 +8284,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Red de Alcantarillado y Tratamiento de Aguas Servidas Asentamiento Bajo Llollinco de Longaví</t>
+          <t>DISEÑO, SUMINISTRO, INSTALACION Y MONTAJE DE EQUIPOS DE AIREACION EN LAGUNAS DE ESTABILIZACION DE LA LOCALIDAD DE LONGAVI (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8299,15 +8299,15 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>ILUSTRE MUNICIPALIDAD DE LONGAVÍ</t>
+          <t>Nuevosur S. A.</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>24/09/2002</t>
+          <t>13/11/2002</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -8317,7 +8317,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=33142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Diseño Instalación Sistema de Agua Potable Rural Localidad de Llano de Piedras</t>
+          <t>Red de Alcantarillado y Tratamiento de Aguas Servidas Asentamiento Bajo Llollinco de Longaví</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8347,15 +8347,15 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>ILUSTRE MUNICIPALIDAD DE LONGAVÍ</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>290</v>
+        <v>150</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>16/07/2002</t>
+          <t>24/09/2002</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -8365,7 +8365,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8380,7 +8380,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Instalación del Servicio de Agua Potable Rural de San Gabriel La Aguada</t>
+          <t>Diseño Instalación Sistema de Agua Potable Rural Localidad de Llano de Piedras</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8399,11 +8399,11 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>100</v>
+        <v>290</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>02/07/2002</t>
+          <t>16/07/2002</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8413,7 +8413,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8428,7 +8428,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transformación a 500 kV de la Línea de Transmisión Eléctrica 2 x 220 kV Charrúa - Ancoa 1 y 2</t>
+          <t>Instalación del Servicio de Agua Potable Rural de San Gabriel La Aguada</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8438,30 +8438,30 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>6590</v>
+        <v>100</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>17/05/2002</t>
+          <t>02/07/2002</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8476,7 +8476,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Servicio de Alcantarillado y Planta de Tratamiento de Aguas Servidas sector Los Cristales</t>
+          <t>Transformación a 500 kV de la Línea de Transmisión Eléctrica 2 x 220 kV Charrúa - Ancoa 1 y 2</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8486,30 +8486,30 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>ILUSTRE MUNICIPALIDAD DE LONGAVÍ</t>
+          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>2260</v>
+        <v>6590</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>07/02/2002</t>
+          <t>17/05/2002</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5083&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8524,7 +8524,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Instalación Servicio Alcantarillado y Tratamiento de Aguas Servidas Miraflores, comuna de Longaví (e-seia)</t>
+          <t>Servicio de Alcantarillado y Planta de Tratamiento de Aguas Servidas sector Los Cristales</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8539,15 +8539,15 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Longaví</t>
+          <t>ILUSTRE MUNICIPALIDAD DE LONGAVÍ</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>500</v>
+        <v>2260</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>13/11/2001</t>
+          <t>07/02/2002</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8557,7 +8557,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=10465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5083&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8572,7 +8572,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Instalación Servicio Alcantarillado y Tratamiento de Aguas Servidas Miraflores, comuna de Longaví (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8582,30 +8582,30 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Ilustre Municipalidad de Longaví</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>13/11/2001</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=10465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8620,7 +8620,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Construcción de Sistema de Agua Potable Rural Localidad de Mesamávida Comuna de Longaví Provincia de Linares Región del Maule</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8630,30 +8630,30 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>28/02/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3647&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8668,7 +8668,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Ampliación y Mejoramiento Sistema de Agua Potable Rural de San José</t>
+          <t>Construcción de Sistema de Agua Potable Rural Localidad de Mesamávida Comuna de Longaví Provincia de Linares Región del Maule</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8683,15 +8683,15 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>ILUSTRE MUNICIPALIDAD DE LONGAVÍ</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>14/04/2000</t>
+          <t>28/02/2001</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8701,7 +8701,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2778&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3647&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8716,7 +8716,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Ampliación y Mejoramiento Sistema de Agua Potable Rural de San José</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8726,20 +8726,20 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>ILUSTRE MUNICIPALIDAD DE LONGAVÍ</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>14/04/2000</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8749,7 +8749,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2778&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8764,7 +8764,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Agua Potable Rural Localidad de la Tercera Chalet Quemado</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8774,20 +8774,20 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>15/12/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8797,7 +8797,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8812,7 +8812,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Construcción Sistema de Agua Potable Rural Localidad de la Tercera Chalet Quemado</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8822,20 +8822,20 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>2500</v>
+        <v>190</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>15/12/1999</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8845,7 +8845,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8860,43 +8860,91 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Transcargo Ltda</t>
+        </is>
+      </c>
+      <c r="F178" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>13/04/1999</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>Longaví</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
           <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
+      <c r="C179" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>Interregional</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
         <is>
           <t>Gasoducto del Pacífico S.A.</t>
         </is>
       </c>
-      <c r="F178" t="n">
+      <c r="F179" t="n">
         <v>850000</v>
       </c>
-      <c r="G178" t="inlineStr">
+      <c r="G179" t="inlineStr">
         <is>
           <t>31/01/1996</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
+      <c r="H179" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I178" t="inlineStr">
+      <c r="I179" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J178" t="inlineStr">
+      <c r="J179" t="inlineStr">
         <is>
           <t>Longaví</t>
         </is>

--- a/data/Longaví.xlsx
+++ b/data/Longaví.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/02/2022</t>
+          <t>21/02/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Longaví.xlsx
+++ b/data/Longaví.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Longaví.xlsx
+++ b/data/Longaví.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Longaví.xlsx
+++ b/data/Longaví.xlsx
@@ -8203,7 +8203,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F164" t="n">

--- a/data/Longaví.xlsx
+++ b/data/Longaví.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J179"/>
+  <dimension ref="A1:J180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Conservación y Mantención de ribera río Achibueno</t>
+          <t>Ampliación Planta de Tratamiento de Aguas Servidas Longaví</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA ARIAL LIMITADA</t>
+          <t>Nuevosur S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>101</v>
+        <v>2621</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/02/2022</t>
+          <t>18/05/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155182346&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159249902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Extracción y Procesamiento de Áridos, Río Achibueno, Sector Los Maitenes</t>
+          <t>Conservación y Mantención de ribera río Achibueno</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Fernando Eugenio Vega Godoy</t>
+          <t>CONSTRUCTORA ARIAL LIMITADA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2500</v>
+        <v>101</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>27/08/2021</t>
+          <t>21/02/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152951438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155182346&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>29/07/2021</t>
+          <t>27/08/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152568643&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152951438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Constructora Revial Limitada</t>
+          <t>Extracción y Procesamiento de Áridos, Río Achibueno, Sector Los Maitenes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Constructora Revial Limitada</t>
+          <t>Fernando Eugenio Vega Godoy</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>2500</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>21/07/2021</t>
+          <t>29/07/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152535485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152568643&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Extracción y Procesamiento de Áridos, Río Achibueno, Sector Los Maitenes</t>
+          <t>Constructora Revial Limitada</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Fernando Eugenio Vega Godoy</t>
+          <t>Constructora Revial Limitada</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2500</v>
+        <v>400</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>05/07/2021</t>
+          <t>21/07/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152243881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152535485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Parque Solar Fotovoltaico Ballota</t>
+          <t>Extracción y Procesamiento de Áridos, Río Achibueno, Sector Los Maitenes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MANZANARES ENERGIA SPA</t>
+          <t>Fernando Eugenio Vega Godoy</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>19/05/2021</t>
+          <t>05/07/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151756866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152243881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Villa Longaví PMG</t>
+          <t>Parque Solar Fotovoltaico Ballota</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Parque Solar Villa Longaví SpA</t>
+          <t>MANZANARES ENERGIA SPA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>10700</v>
+        <v>10000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>22/04/2020</t>
+          <t>19/05/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146349634&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151756866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>Parque Fotovoltaico Villa Longaví PMG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,20 +770,20 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>Parque Solar Villa Longaví SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4000</v>
+        <v>10700</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>27/01/2020</t>
+          <t>22/04/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146349634&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>27/01/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Los Conquistadores</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,20 +866,20 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA MALPO SPA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>9604</v>
+        <v>25000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>28/11/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145045966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>Los Conquistadores</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,30 +914,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>CONSTRUCTORA MALPO SPA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>40</v>
+        <v>9604</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>28/11/2019</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145045966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Transportes Pacífico Limitada</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>9903</v>
+        <v>40</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Transportes Pacífico Limitada</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>42</v>
+        <v>9903</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>20000</v>
+        <v>42</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>37</v>
+        <v>20000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>12/06/2017</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>12/06/2017</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>10000</v>
+        <v>37</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ampliación Transporte rodoviario de cloro</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>27/01/2015</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130165273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Ampliación Transporte rodoviario de cloro</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>27/01/2015</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130165273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ampliación Transporte rodoviario de cloro</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>13/01/2015</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130123610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Ampliación Transporte rodoviario de cloro</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>13/01/2015</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130123610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,11 +1447,11 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento Aguas Servidas de Longaví</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,30 +1682,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Nuevosur S. A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>22/10/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129889310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Mejoramiento Planta de Tratamiento Aguas Servidas de Longaví</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,20 +1730,20 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Nuevosur S. A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>17000</v>
+        <v>1000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>22/10/2014</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129889310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1791,17 +1791,17 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Tranques Macal, el Cóndor y otros.</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,30 +1826,30 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Agricola El Porvenir S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>650</v>
+        <v>17000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>23/07/2014</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129619123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>Tranques Macal, el Cóndor y otros.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,30 +1874,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Agricola El Porvenir S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>5000</v>
+        <v>650</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>23/07/2014</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129619123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1200</v>
+        <v>5000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,11 +1975,11 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,12 +2056,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>PROYECTO NUEVA LÍNEA 2X500 KV CHARRÚA-ANCOA: TENDIDO DEL PRIMER CONDUCTOR</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Charrúa Transmisora de Energía S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>140400</v>
+        <v>5000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>08/10/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128641162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,12 +2104,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>PROYECTO NUEVA LÍNEA 2X500 KV CHARRÚA-ANCOA: TENDIDO DEL PRIMER CONDUCTOR</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Charrúa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>140400</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>08/10/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128641162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2175,17 +2175,17 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2475</v>
+        <v>250</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE ASERRÍO Y REMANUFACTURA, FORESTAL SANTA BLANCA, PLANTA LONGAVÍ</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,30 +2498,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Forestal Santa Blanca Limitada</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1500</v>
+        <v>2475</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>23/10/2012</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7402607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>AMPLIACIÓN PLANTA DE ASERRÍO Y REMANUFACTURA, FORESTAL SANTA BLANCA, PLANTA LONGAVÍ</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,30 +2546,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Forestal Santa Blanca Limitada</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>15000</v>
+        <v>1500</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>23/10/2012</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7402607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>706</v>
+        <v>15000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2655,17 +2655,17 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>706</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,15 +2887,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>17/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>17/10/2011</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>200</v>
+        <v>319</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1650</v>
+        <v>200</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>18/08/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3227,21 +3227,21 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>04/08/2011</t>
+          <t>18/08/2011</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>04/08/2011</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3375,17 +3375,17 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>09/09/2010</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Alberto Díaz Parraguez</t>
+          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -3471,17 +3471,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>25/08/2010</t>
+          <t>09/09/2010</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Alberto Díaz Parraguez</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>25/08/2010</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>13/05/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>4050</v>
+        <v>20</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>13/05/2010</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,25 +3703,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,25 +3847,25 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,15 +3895,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,15 +3991,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,11 +4039,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4095,17 +4095,17 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,25 +4135,25 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,25 +4183,25 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,15 +4231,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,15 +4279,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,36 +4312,40 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Proyecto hidroeléctrico ACHIBUENO</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Centinela S.A</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>285000</v>
+        <v>22</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>24/03/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3641858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4356,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Proyecto Hidroeléctrico Achibueno</t>
+          <t>Proyecto hidroeléctrico ACHIBUENO</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -4367,7 +4371,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Centinela Limitada</t>
+          <t>Hidroeléctrica Centinela S.A</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -4375,7 +4379,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>18/03/2009</t>
+          <t>24/03/2009</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4385,7 +4389,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3633835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3641858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4400,40 +4404,36 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Proyecto Hidroeléctrico Achibueno</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Hidroeléctrica Centinela Limitada</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>285000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>10/02/2009</t>
+          <t>18/03/2009</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3633835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4463,7 +4463,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -4471,17 +4471,17 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>10/02/2009</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4519,17 +4519,17 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4544,7 +4544,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4559,7 +4559,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -4567,17 +4567,17 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4592,7 +4592,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4607,25 +4607,25 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>07/11/2008</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4640,7 +4640,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4655,25 +4655,25 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4688,7 +4688,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4703,25 +4703,25 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4736,7 +4736,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4751,11 +4751,11 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4764,12 +4764,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4784,7 +4784,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4799,25 +4799,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>10/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4832,7 +4832,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4847,25 +4847,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>10/10/2008</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4880,7 +4880,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4895,25 +4895,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4928,7 +4928,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4943,25 +4943,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4976,7 +4976,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4991,25 +4991,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1750</v>
+        <v>20</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5024,7 +5024,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5039,15 +5039,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5057,7 +5057,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5072,7 +5072,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5087,25 +5087,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1650</v>
+        <v>250</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5120,7 +5120,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5135,15 +5135,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5153,7 +5153,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5183,25 +5183,25 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5216,7 +5216,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,17 +5239,17 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5264,7 +5264,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5279,15 +5279,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5297,7 +5297,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5312,7 +5312,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5327,15 +5327,15 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5345,7 +5345,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5360,7 +5360,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5375,25 +5375,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>200</v>
+        <v>1650</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5408,7 +5408,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5423,25 +5423,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5456,10 +5456,14 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>LINEA ALTA TENSION 2x220 kV SAN FABIAN - ANCOA Y OBRAS ASOCIADAS</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr"/>
+          <t>transporte de residuos peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D107" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -5467,25 +5471,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Sistema de Trasmisión del Centro S.A</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>40000</v>
+        <v>20</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>10/04/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2837071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5500,40 +5504,36 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Ampliacion y Mejoramiento Servicio APR San Luis San Raul Las Motas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>LINEA ALTA TENSION 2x220 kV SAN FABIAN - ANCOA Y OBRAS ASOCIADAS</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Comité APR San Luis San Raul Las Motas</t>
+          <t>Sistema de Trasmisión del Centro S.A</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1789</v>
+        <v>40000</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>31/03/2008</t>
+          <t>10/04/2008</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2810434&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2837071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5548,7 +5548,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
+          <t>Ampliacion y Mejoramiento Servicio APR San Luis San Raul Las Motas (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5558,30 +5558,30 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Comité APR San Luis San Raul Las Motas</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>1789</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>21/02/2008</t>
+          <t>31/03/2008</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2810434&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5596,7 +5596,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5611,25 +5611,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>21/02/2008</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5644,7 +5644,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5659,25 +5659,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5692,7 +5692,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Proyecto Porcinos AGRICURA Porcinos Agricura (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5702,20 +5702,20 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Agrícola Joaquín Edgardo Cura Osorio y Cía</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>817</v>
+        <v>0</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>16/01/2008</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5725,7 +5725,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2640102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5740,7 +5740,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LA REGIONES VI Y VIII (e-seia)</t>
+          <t>Proyecto Porcinos AGRICURA Porcinos Agricura (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5750,20 +5750,20 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Agrícola Joaquín Edgardo Cura Osorio y Cía</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>100</v>
+        <v>817</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>11/01/2008</t>
+          <t>16/01/2008</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5773,7 +5773,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2630709&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2640102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5788,7 +5788,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LA REGIONES VI Y VIII (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5803,15 +5803,15 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>26/12/2007</t>
+          <t>11/01/2008</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5821,7 +5821,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2630709&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5836,7 +5836,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5851,15 +5851,15 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>429</v>
+        <v>30</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>26/12/2007</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5869,7 +5869,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5884,7 +5884,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5899,25 +5899,25 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5932,7 +5932,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5947,25 +5947,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5980,7 +5980,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5995,25 +5995,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6028,7 +6028,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6043,25 +6043,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>850</v>
+        <v>10</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>24/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2339571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6076,7 +6076,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6091,25 +6091,25 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>24/08/2007</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2339571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6124,7 +6124,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>CEMENTERIO PARQUE LONGAVI (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6134,30 +6134,30 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>RICARDO ANTONIO ALBORNOZ VASQUEZ</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>16/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2319788&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6172,7 +6172,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMAPCTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>CEMENTERIO PARQUE LONGAVI (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6182,20 +6182,20 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>RICARDO ANTONIO ALBORNOZ VASQUEZ</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>850</v>
+        <v>380</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>03/08/2007</t>
+          <t>16/08/2007</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6205,7 +6205,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2295234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2319788&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6220,7 +6220,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>DECLARACION DE IMAPCTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6235,7 +6235,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Carlos Muñoz Hermosilla</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F123" t="n">
@@ -6243,7 +6243,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>06/07/2007</t>
+          <t>03/08/2007</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6253,7 +6253,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198879&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2295234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6268,7 +6268,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6283,15 +6283,15 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Carlos Muñoz Hermosilla</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>06/07/2007</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6301,7 +6301,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198879&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6316,7 +6316,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6331,25 +6331,25 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6364,7 +6364,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>DIA Plan Regulador Comunal de Longaví (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6374,30 +6374,30 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Longaví</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>24/04/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2095941&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6412,7 +6412,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>DIA Plan Regulador Comunal de Longaví (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6422,20 +6422,20 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Ilustre Municipalidad de Longaví</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>24/04/2007</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2095941&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6460,7 +6460,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6479,21 +6479,21 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6508,7 +6508,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6523,25 +6523,25 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6556,7 +6556,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6579,17 +6579,17 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6604,7 +6604,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6619,25 +6619,25 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6652,7 +6652,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6667,25 +6667,25 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6700,7 +6700,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6715,25 +6715,25 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6748,7 +6748,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6763,25 +6763,25 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6796,7 +6796,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6811,25 +6811,25 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6844,7 +6844,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6859,25 +6859,25 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6892,7 +6892,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6907,25 +6907,25 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6940,7 +6940,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6955,25 +6955,25 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6988,7 +6988,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7003,7 +7003,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F139" t="n">
@@ -7011,17 +7011,17 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7036,7 +7036,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>"TRANSPORTE FERROVIARIO DE ÁCIDO SULFÚRICO ENTRE REGIONES V Y VIII PARA EL COMPLEJO FORESTAL INDUSTRIAL CFI NUEVA ALDEA" (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7051,25 +7051,25 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>30/05/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1469666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7084,7 +7084,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ENGORDA DE GANADO BOVINO EN CONCENTRACION (e-seia)</t>
+          <t>"TRANSPORTE FERROVIARIO DE ÁCIDO SULFÚRICO ENTRE REGIONES V Y VIII PARA EL COMPLEJO FORESTAL INDUSTRIAL CFI NUEVA ALDEA" (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7094,30 +7094,30 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Nicanor Allende Vial</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>9308</v>
+        <v>142</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>05/05/2006</t>
+          <t>30/05/2006</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1414292&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1469666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7132,7 +7132,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>ENGORDA DE GANADO BOVINO EN CONCENTRACION (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7142,30 +7142,30 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Nicanor Allende Vial</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>500</v>
+        <v>9308</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>05/05/2006</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1414292&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7180,7 +7180,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7203,17 +7203,17 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7228,7 +7228,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7243,25 +7243,25 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7276,7 +7276,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7299,17 +7299,17 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7324,7 +7324,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7339,25 +7339,25 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7372,7 +7372,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7387,25 +7387,25 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7420,7 +7420,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7435,25 +7435,25 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7468,7 +7468,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7483,25 +7483,25 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>3517</v>
+        <v>72</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7516,7 +7516,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7531,15 +7531,15 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7549,7 +7549,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7564,7 +7564,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Diseño de Ingeniería, Mejoramiento y Ampliación Servicio de Agua Potable Rural Paine-La Conquista (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7574,20 +7574,20 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Eulalia de Lourdes Álvarez Sepúlveda</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>550</v>
+        <v>160</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>09/11/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1082720&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7612,7 +7612,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Diseño de Ingeniería, Mejoramiento y Ampliación Servicio de Agua Potable Rural Paine-La Conquista (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7622,20 +7622,20 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Eulalia de Lourdes Álvarez Sepúlveda</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>80</v>
+        <v>550</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>09/11/2005</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7645,7 +7645,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1082720&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7660,7 +7660,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7675,15 +7675,15 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7693,7 +7693,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7723,11 +7723,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7756,7 +7756,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7771,11 +7771,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7789,7 +7789,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7804,7 +7804,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7819,7 +7819,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
@@ -7827,7 +7827,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7837,7 +7837,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7852,7 +7852,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7867,15 +7867,15 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7885,7 +7885,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7915,7 +7915,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F158" t="n">
@@ -7923,17 +7923,17 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7948,7 +7948,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7963,15 +7963,15 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7981,7 +7981,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -7996,7 +7996,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGION DEL MAULE. (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8006,30 +8006,30 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Bienes Nacionales, Región del Maule</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>17/01/2005</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561657&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8044,7 +8044,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGION DEL MAULE. (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8054,20 +8054,20 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>SEREMI de Vivienda y Bienes Nacionales, Región del Maule</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>17/01/2005</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8077,7 +8077,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561657&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8092,7 +8092,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Proyecto Cementerio Parque Jardines de Longaví (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8102,20 +8102,20 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Valericio Sepúlveda Ramírez</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>16/01/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8125,7 +8125,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=249005&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8140,7 +8140,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Proyecto Cementerio Parque Jardines de Longaví (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8150,20 +8150,20 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Valericio Sepúlveda Ramírez</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>16/01/2004</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8173,7 +8173,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=249005&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8188,7 +8188,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>TRANSFORMACIÓN A 500 kV DE LA LÍNEA DE TRANSMISIÓN ELÉCTRICA 2X220 kV CHARRÚA ANCOA 1 Y 2 (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8203,15 +8203,15 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>6600</v>
+        <v>200</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>04/07/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8221,7 +8221,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8236,7 +8236,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Cementerio Parque Los Jardines de Longaví</t>
+          <t>TRANSFORMACIÓN A 500 kV DE LA LÍNEA DE TRANSMISIÓN ELÉCTRICA 2X220 kV CHARRÚA ANCOA 1 Y 2 (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8246,30 +8246,30 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Valericio Sepúlveda Ramírez</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>09/04/2003</t>
+          <t>04/07/2003</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6233&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8284,7 +8284,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>DISEÑO, SUMINISTRO, INSTALACION Y MONTAJE DE EQUIPOS DE AIREACION EN LAGUNAS DE ESTABILIZACION DE LA LOCALIDAD DE LONGAVI (e-seia)</t>
+          <t>Cementerio Parque Los Jardines de Longaví</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8299,25 +8299,25 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Nuevosur S. A.</t>
+          <t>Valericio Sepúlveda Ramírez</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>13/11/2002</t>
+          <t>09/04/2003</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=33142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6233&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Red de Alcantarillado y Tratamiento de Aguas Servidas Asentamiento Bajo Llollinco de Longaví</t>
+          <t>DISEÑO, SUMINISTRO, INSTALACION Y MONTAJE DE EQUIPOS DE AIREACION EN LAGUNAS DE ESTABILIZACION DE LA LOCALIDAD DE LONGAVI (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8347,15 +8347,15 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>ILUSTRE MUNICIPALIDAD DE LONGAVÍ</t>
+          <t>Nuevosur S. A.</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>24/09/2002</t>
+          <t>13/11/2002</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -8365,7 +8365,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=33142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8380,7 +8380,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Diseño Instalación Sistema de Agua Potable Rural Localidad de Llano de Piedras</t>
+          <t>Red de Alcantarillado y Tratamiento de Aguas Servidas Asentamiento Bajo Llollinco de Longaví</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8395,15 +8395,15 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>ILUSTRE MUNICIPALIDAD DE LONGAVÍ</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>290</v>
+        <v>150</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>16/07/2002</t>
+          <t>24/09/2002</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8413,7 +8413,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8428,7 +8428,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Instalación del Servicio de Agua Potable Rural de San Gabriel La Aguada</t>
+          <t>Diseño Instalación Sistema de Agua Potable Rural Localidad de Llano de Piedras</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8447,11 +8447,11 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>100</v>
+        <v>290</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>02/07/2002</t>
+          <t>16/07/2002</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8461,7 +8461,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8476,7 +8476,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transformación a 500 kV de la Línea de Transmisión Eléctrica 2 x 220 kV Charrúa - Ancoa 1 y 2</t>
+          <t>Instalación del Servicio de Agua Potable Rural de San Gabriel La Aguada</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8486,30 +8486,30 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>6590</v>
+        <v>100</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>17/05/2002</t>
+          <t>02/07/2002</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8524,7 +8524,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Servicio de Alcantarillado y Planta de Tratamiento de Aguas Servidas sector Los Cristales</t>
+          <t>Transformación a 500 kV de la Línea de Transmisión Eléctrica 2 x 220 kV Charrúa - Ancoa 1 y 2</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8534,30 +8534,30 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>ILUSTRE MUNICIPALIDAD DE LONGAVÍ</t>
+          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>2260</v>
+        <v>6590</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>07/02/2002</t>
+          <t>17/05/2002</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5083&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8572,7 +8572,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Instalación Servicio Alcantarillado y Tratamiento de Aguas Servidas Miraflores, comuna de Longaví (e-seia)</t>
+          <t>Servicio de Alcantarillado y Planta de Tratamiento de Aguas Servidas sector Los Cristales</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8587,15 +8587,15 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Longaví</t>
+          <t>ILUSTRE MUNICIPALIDAD DE LONGAVÍ</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>500</v>
+        <v>2260</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>13/11/2001</t>
+          <t>07/02/2002</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8605,7 +8605,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=10465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5083&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8620,7 +8620,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Instalación Servicio Alcantarillado y Tratamiento de Aguas Servidas Miraflores, comuna de Longaví (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8630,30 +8630,30 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Ilustre Municipalidad de Longaví</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>13/11/2001</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=10465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8668,7 +8668,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Construcción de Sistema de Agua Potable Rural Localidad de Mesamávida Comuna de Longaví Provincia de Linares Región del Maule</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8678,30 +8678,30 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>28/02/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3647&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8716,7 +8716,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Ampliación y Mejoramiento Sistema de Agua Potable Rural de San José</t>
+          <t>Construcción de Sistema de Agua Potable Rural Localidad de Mesamávida Comuna de Longaví Provincia de Linares Región del Maule</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8731,15 +8731,15 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>ILUSTRE MUNICIPALIDAD DE LONGAVÍ</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>14/04/2000</t>
+          <t>28/02/2001</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8749,7 +8749,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2778&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3647&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8764,7 +8764,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Ampliación y Mejoramiento Sistema de Agua Potable Rural de San José</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8774,20 +8774,20 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>ILUSTRE MUNICIPALIDAD DE LONGAVÍ</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>14/04/2000</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8797,7 +8797,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2778&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8812,7 +8812,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Agua Potable Rural Localidad de la Tercera Chalet Quemado</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8822,20 +8822,20 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>15/12/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8845,7 +8845,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8860,7 +8860,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Construcción Sistema de Agua Potable Rural Localidad de la Tercera Chalet Quemado</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8870,20 +8870,20 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>2500</v>
+        <v>190</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>15/12/1999</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8893,7 +8893,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8908,43 +8908,91 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Transcargo Ltda</t>
+        </is>
+      </c>
+      <c r="F179" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>13/04/1999</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>Longaví</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
           <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
+      <c r="C180" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>Interregional</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
         <is>
           <t>Gasoducto del Pacífico S.A.</t>
         </is>
       </c>
-      <c r="F179" t="n">
+      <c r="F180" t="n">
         <v>850000</v>
       </c>
-      <c r="G179" t="inlineStr">
+      <c r="G180" t="inlineStr">
         <is>
           <t>31/01/1996</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
+      <c r="H180" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I179" t="inlineStr">
+      <c r="I180" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J179" t="inlineStr">
+      <c r="J180" t="inlineStr">
         <is>
           <t>Longaví</t>
         </is>

--- a/data/Longaví.xlsx
+++ b/data/Longaví.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/05/2023</t>
+          <t>24/05/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Longaví.xlsx
+++ b/data/Longaví.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J180"/>
+  <dimension ref="A1:J181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Tratamiento de Aguas Servidas Longaví</t>
+          <t>Ampliación, extracción y procesamiento de áridos Pafal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Nuevosur S.A.</t>
+          <t>PAFAL ARIDOS Y HORMIGONES LIMITADA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2621</v>
+        <v>101</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/05/2023</t>
+          <t>13/09/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159249902&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160047465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Conservación y Mantención de ribera río Achibueno</t>
+          <t>Ampliación Planta de Tratamiento de Aguas Servidas Longaví</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA ARIAL LIMITADA</t>
+          <t>Nuevosur S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>101</v>
+        <v>2621</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>21/02/2022</t>
+          <t>24/05/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155182346&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159249902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Extracción y Procesamiento de Áridos, Río Achibueno, Sector Los Maitenes</t>
+          <t>Conservación y Mantención de ribera río Achibueno</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Fernando Eugenio Vega Godoy</t>
+          <t>CONSTRUCTORA ARIAL LIMITADA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2500</v>
+        <v>101</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>27/08/2021</t>
+          <t>21/02/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152951438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155182346&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -591,17 +591,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>29/07/2021</t>
+          <t>27/08/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152568643&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152951438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Constructora Revial Limitada</t>
+          <t>Extracción y Procesamiento de Áridos, Río Achibueno, Sector Los Maitenes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Constructora Revial Limitada</t>
+          <t>Fernando Eugenio Vega Godoy</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>400</v>
+        <v>2500</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>21/07/2021</t>
+          <t>29/07/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152535485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152568643&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Extracción y Procesamiento de Áridos, Río Achibueno, Sector Los Maitenes</t>
+          <t>Constructora Revial Limitada</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Fernando Eugenio Vega Godoy</t>
+          <t>Constructora Revial Limitada</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2500</v>
+        <v>400</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>05/07/2021</t>
+          <t>21/07/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152243881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152535485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Parque Solar Fotovoltaico Ballota</t>
+          <t>Extracción y Procesamiento de Áridos, Río Achibueno, Sector Los Maitenes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MANZANARES ENERGIA SPA</t>
+          <t>Fernando Eugenio Vega Godoy</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>19/05/2021</t>
+          <t>05/07/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151756866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152243881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Villa Longaví PMG</t>
+          <t>Parque Solar Fotovoltaico Ballota</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Parque Solar Villa Longaví SpA</t>
+          <t>MANZANARES ENERGIA SPA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>10700</v>
+        <v>10000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>22/04/2020</t>
+          <t>19/05/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146349634&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151756866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>Parque Fotovoltaico Villa Longaví PMG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,20 +818,20 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>Parque Solar Villa Longaví SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4000</v>
+        <v>10700</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>27/01/2020</t>
+          <t>22/04/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146349634&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>27/01/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Los Conquistadores</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,20 +914,20 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA MALPO SPA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>9604</v>
+        <v>25000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>28/11/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145045966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>Los Conquistadores</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,30 +962,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>CONSTRUCTORA MALPO SPA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>40</v>
+        <v>9604</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>28/11/2019</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145045966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Transportes Pacífico Limitada</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>9903</v>
+        <v>40</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Transportes Pacífico Limitada</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>42</v>
+        <v>9903</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>20000</v>
+        <v>42</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>37</v>
+        <v>20000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>12/06/2017</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1215,7 +1215,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>12/06/2017</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>10000</v>
+        <v>37</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ampliación Transporte rodoviario de cloro</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>27/01/2015</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130165273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Ampliación Transporte rodoviario de cloro</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>27/01/2015</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130165273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ampliación Transporte rodoviario de cloro</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>13/01/2015</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130123610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Ampliación Transporte rodoviario de cloro</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>13/01/2015</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130123610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,11 +1495,11 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento Aguas Servidas de Longaví</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,30 +1730,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Nuevosur S. A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>22/10/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129889310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Mejoramiento Planta de Tratamiento Aguas Servidas de Longaví</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,20 +1778,20 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Nuevosur S. A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>17000</v>
+        <v>1000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>22/10/2014</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129889310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1839,17 +1839,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Tranques Macal, el Cóndor y otros.</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,30 +1874,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Agricola El Porvenir S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>650</v>
+        <v>17000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>23/07/2014</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129619123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>Tranques Macal, el Cóndor y otros.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,30 +1922,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Agricola El Porvenir S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>5000</v>
+        <v>650</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>23/07/2014</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129619123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1200</v>
+        <v>5000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,11 +2023,11 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,12 +2104,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>PROYECTO NUEVA LÍNEA 2X500 KV CHARRÚA-ANCOA: TENDIDO DEL PRIMER CONDUCTOR</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Charrúa Transmisora de Energía S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>140400</v>
+        <v>5000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>08/10/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128641162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,12 +2152,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>PROYECTO NUEVA LÍNEA 2X500 KV CHARRÚA-ANCOA: TENDIDO DEL PRIMER CONDUCTOR</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Charrúa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>140400</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>08/10/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128641162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2223,17 +2223,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2475</v>
+        <v>250</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE ASERRÍO Y REMANUFACTURA, FORESTAL SANTA BLANCA, PLANTA LONGAVÍ</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,30 +2546,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Forestal Santa Blanca Limitada</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1500</v>
+        <v>2475</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>23/10/2012</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7402607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>AMPLIACIÓN PLANTA DE ASERRÍO Y REMANUFACTURA, FORESTAL SANTA BLANCA, PLANTA LONGAVÍ</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,30 +2594,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Forestal Santa Blanca Limitada</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>15000</v>
+        <v>1500</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>23/10/2012</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7402607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>706</v>
+        <v>15000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2703,17 +2703,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>706</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,15 +2887,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>17/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>17/10/2011</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>200</v>
+        <v>319</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,25 +3223,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1650</v>
+        <v>200</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>18/08/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3275,21 +3275,21 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>04/08/2011</t>
+          <t>18/08/2011</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,15 +3319,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>04/08/2011</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3423,17 +3423,17 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,25 +3463,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>09/09/2010</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,7 +3511,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Alberto Díaz Parraguez</t>
+          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -3519,17 +3519,17 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>25/08/2010</t>
+          <t>09/09/2010</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Alberto Díaz Parraguez</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>25/08/2010</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>13/05/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,25 +3655,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>4050</v>
+        <v>20</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>13/05/2010</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,25 +3895,25 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,15 +3943,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,15 +4039,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,11 +4087,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -4143,17 +4143,17 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,25 +4183,25 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,25 +4231,25 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,15 +4279,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,15 +4327,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,36 +4360,40 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Proyecto hidroeléctrico ACHIBUENO</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Centinela S.A</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>285000</v>
+        <v>22</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>24/03/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3641858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4404,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Proyecto Hidroeléctrico Achibueno</t>
+          <t>Proyecto hidroeléctrico ACHIBUENO</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -4415,7 +4419,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Centinela Limitada</t>
+          <t>Hidroeléctrica Centinela S.A</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -4423,7 +4427,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>18/03/2009</t>
+          <t>24/03/2009</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4433,7 +4437,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3633835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3641858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4448,40 +4452,36 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Proyecto Hidroeléctrico Achibueno</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Hidroeléctrica Centinela Limitada</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>285000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>10/02/2009</t>
+          <t>18/03/2009</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3633835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4496,7 +4496,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4511,7 +4511,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -4519,17 +4519,17 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>10/02/2009</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4567,17 +4567,17 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4592,7 +4592,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -4615,17 +4615,17 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4640,7 +4640,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4655,25 +4655,25 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>07/11/2008</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4688,7 +4688,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4703,25 +4703,25 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4736,7 +4736,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4751,25 +4751,25 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4784,7 +4784,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4799,11 +4799,11 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4812,12 +4812,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4832,7 +4832,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4847,25 +4847,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>10/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4880,7 +4880,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4895,25 +4895,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>10/10/2008</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4928,7 +4928,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4943,25 +4943,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4976,7 +4976,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4991,25 +4991,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5024,7 +5024,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5039,25 +5039,25 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1750</v>
+        <v>20</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5072,7 +5072,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5087,15 +5087,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5105,7 +5105,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5120,7 +5120,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5135,25 +5135,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1650</v>
+        <v>250</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5168,7 +5168,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5183,15 +5183,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5201,7 +5201,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5231,25 +5231,25 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5264,7 +5264,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,17 +5287,17 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5312,7 +5312,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5327,15 +5327,15 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5345,7 +5345,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5360,7 +5360,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5375,15 +5375,15 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5393,7 +5393,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5408,7 +5408,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5423,25 +5423,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>200</v>
+        <v>1650</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5456,7 +5456,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5471,25 +5471,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5504,10 +5504,14 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>LINEA ALTA TENSION 2x220 kV SAN FABIAN - ANCOA Y OBRAS ASOCIADAS</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr"/>
+          <t>transporte de residuos peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D108" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -5515,25 +5519,25 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Sistema de Trasmisión del Centro S.A</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>40000</v>
+        <v>20</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>10/04/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2837071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5548,40 +5552,36 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Ampliacion y Mejoramiento Servicio APR San Luis San Raul Las Motas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>LINEA ALTA TENSION 2x220 kV SAN FABIAN - ANCOA Y OBRAS ASOCIADAS</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Comité APR San Luis San Raul Las Motas</t>
+          <t>Sistema de Trasmisión del Centro S.A</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1789</v>
+        <v>40000</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>31/03/2008</t>
+          <t>10/04/2008</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2810434&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2837071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5596,7 +5596,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
+          <t>Ampliacion y Mejoramiento Servicio APR San Luis San Raul Las Motas (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5606,30 +5606,30 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Comité APR San Luis San Raul Las Motas</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>1789</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>21/02/2008</t>
+          <t>31/03/2008</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2810434&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5644,7 +5644,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5659,25 +5659,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>21/02/2008</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5692,7 +5692,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5707,25 +5707,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5740,7 +5740,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Proyecto Porcinos AGRICURA Porcinos Agricura (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5750,20 +5750,20 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Agrícola Joaquín Edgardo Cura Osorio y Cía</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>817</v>
+        <v>0</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>16/01/2008</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5773,7 +5773,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2640102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5788,7 +5788,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LA REGIONES VI Y VIII (e-seia)</t>
+          <t>Proyecto Porcinos AGRICURA Porcinos Agricura (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5798,20 +5798,20 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Agrícola Joaquín Edgardo Cura Osorio y Cía</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>100</v>
+        <v>817</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>11/01/2008</t>
+          <t>16/01/2008</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5821,7 +5821,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2630709&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2640102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5836,7 +5836,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LA REGIONES VI Y VIII (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5851,15 +5851,15 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>26/12/2007</t>
+          <t>11/01/2008</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5869,7 +5869,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2630709&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5884,7 +5884,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5899,15 +5899,15 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>429</v>
+        <v>30</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>26/12/2007</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5917,7 +5917,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5932,7 +5932,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5947,25 +5947,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5980,7 +5980,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5995,25 +5995,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6028,7 +6028,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6043,25 +6043,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6076,7 +6076,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6091,25 +6091,25 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>850</v>
+        <v>10</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>24/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2339571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6124,7 +6124,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6139,25 +6139,25 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>24/08/2007</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2339571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6172,7 +6172,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>CEMENTERIO PARQUE LONGAVI (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6182,30 +6182,30 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>RICARDO ANTONIO ALBORNOZ VASQUEZ</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>16/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2319788&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6220,7 +6220,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMAPCTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>CEMENTERIO PARQUE LONGAVI (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6230,20 +6230,20 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>RICARDO ANTONIO ALBORNOZ VASQUEZ</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>850</v>
+        <v>380</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>03/08/2007</t>
+          <t>16/08/2007</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6253,7 +6253,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2295234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2319788&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6268,7 +6268,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>DECLARACION DE IMAPCTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6283,7 +6283,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Carlos Muñoz Hermosilla</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F124" t="n">
@@ -6291,7 +6291,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>06/07/2007</t>
+          <t>03/08/2007</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6301,7 +6301,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198879&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2295234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6316,7 +6316,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6331,15 +6331,15 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Carlos Muñoz Hermosilla</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>06/07/2007</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6349,7 +6349,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198879&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6364,7 +6364,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6379,25 +6379,25 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6412,7 +6412,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>DIA Plan Regulador Comunal de Longaví (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6422,30 +6422,30 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Longaví</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>24/04/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2095941&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6460,7 +6460,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>DIA Plan Regulador Comunal de Longaví (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6470,20 +6470,20 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Ilustre Municipalidad de Longaví</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>24/04/2007</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6493,7 +6493,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2095941&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6508,7 +6508,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6527,21 +6527,21 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6556,7 +6556,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6571,25 +6571,25 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6604,7 +6604,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6627,17 +6627,17 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6652,7 +6652,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6667,25 +6667,25 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6700,7 +6700,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6715,25 +6715,25 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6748,7 +6748,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6763,25 +6763,25 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6796,7 +6796,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6811,25 +6811,25 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6844,7 +6844,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6859,25 +6859,25 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6892,7 +6892,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6907,25 +6907,25 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6940,7 +6940,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6955,25 +6955,25 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6988,7 +6988,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7003,25 +7003,25 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7036,7 +7036,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7051,7 +7051,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F140" t="n">
@@ -7059,17 +7059,17 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7084,7 +7084,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>"TRANSPORTE FERROVIARIO DE ÁCIDO SULFÚRICO ENTRE REGIONES V Y VIII PARA EL COMPLEJO FORESTAL INDUSTRIAL CFI NUEVA ALDEA" (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7099,25 +7099,25 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>30/05/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1469666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7132,7 +7132,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ENGORDA DE GANADO BOVINO EN CONCENTRACION (e-seia)</t>
+          <t>"TRANSPORTE FERROVIARIO DE ÁCIDO SULFÚRICO ENTRE REGIONES V Y VIII PARA EL COMPLEJO FORESTAL INDUSTRIAL CFI NUEVA ALDEA" (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7142,30 +7142,30 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Nicanor Allende Vial</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>9308</v>
+        <v>142</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>05/05/2006</t>
+          <t>30/05/2006</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1414292&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1469666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7180,7 +7180,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>ENGORDA DE GANADO BOVINO EN CONCENTRACION (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7190,30 +7190,30 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Nicanor Allende Vial</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>500</v>
+        <v>9308</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>05/05/2006</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1414292&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7228,7 +7228,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7251,17 +7251,17 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7276,7 +7276,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7291,25 +7291,25 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7324,7 +7324,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7347,17 +7347,17 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7372,7 +7372,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7387,25 +7387,25 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7420,7 +7420,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7435,25 +7435,25 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7468,7 +7468,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7483,25 +7483,25 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7516,7 +7516,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7531,25 +7531,25 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>3517</v>
+        <v>72</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7564,7 +7564,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7579,15 +7579,15 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7612,7 +7612,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Diseño de Ingeniería, Mejoramiento y Ampliación Servicio de Agua Potable Rural Paine-La Conquista (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7622,20 +7622,20 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Eulalia de Lourdes Álvarez Sepúlveda</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>550</v>
+        <v>160</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>09/11/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7645,7 +7645,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1082720&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7660,7 +7660,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Diseño de Ingeniería, Mejoramiento y Ampliación Servicio de Agua Potable Rural Paine-La Conquista (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7670,20 +7670,20 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Eulalia de Lourdes Álvarez Sepúlveda</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>80</v>
+        <v>550</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>09/11/2005</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7693,7 +7693,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1082720&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7708,7 +7708,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7723,15 +7723,15 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7741,7 +7741,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7771,11 +7771,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7789,7 +7789,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7804,7 +7804,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7819,11 +7819,11 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7852,7 +7852,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7867,7 +7867,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
@@ -7875,7 +7875,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7885,7 +7885,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7900,7 +7900,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7915,15 +7915,15 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7933,7 +7933,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7963,7 +7963,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F159" t="n">
@@ -7971,17 +7971,17 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -7996,7 +7996,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8011,15 +8011,15 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8029,7 +8029,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8044,7 +8044,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGION DEL MAULE. (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8054,30 +8054,30 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Bienes Nacionales, Región del Maule</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>17/01/2005</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561657&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8092,7 +8092,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGION DEL MAULE. (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8102,20 +8102,20 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>SEREMI de Vivienda y Bienes Nacionales, Región del Maule</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>17/01/2005</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8125,7 +8125,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561657&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8140,7 +8140,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Proyecto Cementerio Parque Jardines de Longaví (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8150,20 +8150,20 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Valericio Sepúlveda Ramírez</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>16/01/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8173,7 +8173,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=249005&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8188,7 +8188,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Proyecto Cementerio Parque Jardines de Longaví (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8198,20 +8198,20 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Valericio Sepúlveda Ramírez</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>16/01/2004</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8221,7 +8221,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=249005&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8236,7 +8236,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>TRANSFORMACIÓN A 500 kV DE LA LÍNEA DE TRANSMISIÓN ELÉCTRICA 2X220 kV CHARRÚA ANCOA 1 Y 2 (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8251,15 +8251,15 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>6600</v>
+        <v>200</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>04/07/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -8269,7 +8269,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8284,7 +8284,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Cementerio Parque Los Jardines de Longaví</t>
+          <t>TRANSFORMACIÓN A 500 kV DE LA LÍNEA DE TRANSMISIÓN ELÉCTRICA 2X220 kV CHARRÚA ANCOA 1 Y 2 (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8294,30 +8294,30 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Valericio Sepúlveda Ramírez</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>09/04/2003</t>
+          <t>04/07/2003</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6233&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>DISEÑO, SUMINISTRO, INSTALACION Y MONTAJE DE EQUIPOS DE AIREACION EN LAGUNAS DE ESTABILIZACION DE LA LOCALIDAD DE LONGAVI (e-seia)</t>
+          <t>Cementerio Parque Los Jardines de Longaví</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8347,25 +8347,25 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Nuevosur S. A.</t>
+          <t>Valericio Sepúlveda Ramírez</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>13/11/2002</t>
+          <t>09/04/2003</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=33142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6233&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8380,7 +8380,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Red de Alcantarillado y Tratamiento de Aguas Servidas Asentamiento Bajo Llollinco de Longaví</t>
+          <t>DISEÑO, SUMINISTRO, INSTALACION Y MONTAJE DE EQUIPOS DE AIREACION EN LAGUNAS DE ESTABILIZACION DE LA LOCALIDAD DE LONGAVI (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8395,15 +8395,15 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>ILUSTRE MUNICIPALIDAD DE LONGAVÍ</t>
+          <t>Nuevosur S. A.</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>24/09/2002</t>
+          <t>13/11/2002</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8413,7 +8413,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=33142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8428,7 +8428,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Diseño Instalación Sistema de Agua Potable Rural Localidad de Llano de Piedras</t>
+          <t>Red de Alcantarillado y Tratamiento de Aguas Servidas Asentamiento Bajo Llollinco de Longaví</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8443,15 +8443,15 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>ILUSTRE MUNICIPALIDAD DE LONGAVÍ</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>290</v>
+        <v>150</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>16/07/2002</t>
+          <t>24/09/2002</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8461,7 +8461,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8476,7 +8476,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Instalación del Servicio de Agua Potable Rural de San Gabriel La Aguada</t>
+          <t>Diseño Instalación Sistema de Agua Potable Rural Localidad de Llano de Piedras</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8495,11 +8495,11 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>100</v>
+        <v>290</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>02/07/2002</t>
+          <t>16/07/2002</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8509,7 +8509,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8524,7 +8524,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transformación a 500 kV de la Línea de Transmisión Eléctrica 2 x 220 kV Charrúa - Ancoa 1 y 2</t>
+          <t>Instalación del Servicio de Agua Potable Rural de San Gabriel La Aguada</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8534,30 +8534,30 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>6590</v>
+        <v>100</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>17/05/2002</t>
+          <t>02/07/2002</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8572,7 +8572,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Servicio de Alcantarillado y Planta de Tratamiento de Aguas Servidas sector Los Cristales</t>
+          <t>Transformación a 500 kV de la Línea de Transmisión Eléctrica 2 x 220 kV Charrúa - Ancoa 1 y 2</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8582,30 +8582,30 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>ILUSTRE MUNICIPALIDAD DE LONGAVÍ</t>
+          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>2260</v>
+        <v>6590</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>07/02/2002</t>
+          <t>17/05/2002</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5083&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8620,7 +8620,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Instalación Servicio Alcantarillado y Tratamiento de Aguas Servidas Miraflores, comuna de Longaví (e-seia)</t>
+          <t>Servicio de Alcantarillado y Planta de Tratamiento de Aguas Servidas sector Los Cristales</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8635,15 +8635,15 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Longaví</t>
+          <t>ILUSTRE MUNICIPALIDAD DE LONGAVÍ</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>500</v>
+        <v>2260</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>13/11/2001</t>
+          <t>07/02/2002</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8653,7 +8653,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=10465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5083&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8668,7 +8668,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Instalación Servicio Alcantarillado y Tratamiento de Aguas Servidas Miraflores, comuna de Longaví (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8678,30 +8678,30 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Ilustre Municipalidad de Longaví</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>13/11/2001</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=10465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8716,7 +8716,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Construcción de Sistema de Agua Potable Rural Localidad de Mesamávida Comuna de Longaví Provincia de Linares Región del Maule</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8726,30 +8726,30 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>28/02/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3647&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8764,7 +8764,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Ampliación y Mejoramiento Sistema de Agua Potable Rural de San José</t>
+          <t>Construcción de Sistema de Agua Potable Rural Localidad de Mesamávida Comuna de Longaví Provincia de Linares Región del Maule</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8779,15 +8779,15 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>ILUSTRE MUNICIPALIDAD DE LONGAVÍ</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>14/04/2000</t>
+          <t>28/02/2001</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8797,7 +8797,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2778&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3647&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8812,7 +8812,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Ampliación y Mejoramiento Sistema de Agua Potable Rural de San José</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8822,20 +8822,20 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>ILUSTRE MUNICIPALIDAD DE LONGAVÍ</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>14/04/2000</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8845,7 +8845,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2778&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8860,7 +8860,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Agua Potable Rural Localidad de la Tercera Chalet Quemado</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8870,20 +8870,20 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>15/12/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8893,7 +8893,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8908,7 +8908,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Construcción Sistema de Agua Potable Rural Localidad de la Tercera Chalet Quemado</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8918,20 +8918,20 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>2500</v>
+        <v>190</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>15/12/1999</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8941,7 +8941,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8956,43 +8956,91 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Transcargo Ltda</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>13/04/1999</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>Longaví</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
           <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
+      <c r="C181" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>Interregional</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
         <is>
           <t>Gasoducto del Pacífico S.A.</t>
         </is>
       </c>
-      <c r="F180" t="n">
+      <c r="F181" t="n">
         <v>850000</v>
       </c>
-      <c r="G180" t="inlineStr">
+      <c r="G181" t="inlineStr">
         <is>
           <t>31/01/1996</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
+      <c r="H181" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I180" t="inlineStr">
+      <c r="I181" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J180" t="inlineStr">
+      <c r="J181" t="inlineStr">
         <is>
           <t>Longaví</t>
         </is>

--- a/data/Longaví.xlsx
+++ b/data/Longaví.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>13/09/2023</t>
+          <t>21/09/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Longaví.xlsx
+++ b/data/Longaví.xlsx
@@ -8299,7 +8299,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F166" t="n">
